--- a/ZSS/resources/Purva Vihar/FY2014-15/08-August-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/08-August-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -593,13 +593,16 @@
     <t>Maintenance Charges for Month of August 2014.</t>
   </si>
   <si>
-    <t xml:space="preserve">      /08/14</t>
-  </si>
-  <si>
     <t>Till April 2015</t>
   </si>
   <si>
     <t>Adjustment 220</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1026,42 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1072,24 +1111,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1118,24 +1139,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1192,62 +1195,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="21"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
+    <tableColumn id="8" name="Date" dataDxfId="27"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="17" totalsRowDxfId="0">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="4"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
+    <tableColumn id="8" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1541,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M8" sqref="M8:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1568,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1577,7 +1582,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1596,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1604,7 +1609,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1623,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -1628,7 +1633,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>80</v>
       </c>
@@ -1642,7 +1647,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1679,8 +1684,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1707,12 +1715,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>84</v>
+      <c r="I9" s="19">
+        <v>41860</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1739,12 +1750,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>84</v>
+      <c r="I10" s="19">
+        <v>41872</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1771,12 +1785,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>84</v>
+      <c r="I11" s="19">
+        <v>41872</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1803,12 +1820,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>84</v>
+      <c r="I12" s="19">
+        <v>41860</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1835,13 +1855,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>84</v>
+      <c r="I13" s="19">
+        <v>41860</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1868,12 +1891,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>84</v>
+      <c r="I14" s="19">
+        <v>41860</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1900,15 +1926,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>84</v>
+      <c r="I15" s="19">
+        <v>41852</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1935,12 +1964,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>84</v>
+      <c r="I16" s="19">
+        <v>41860</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1967,12 +1999,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>84</v>
+      <c r="I17" s="19">
+        <v>41865</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1999,12 +2034,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>84</v>
+      <c r="I18" s="19">
+        <v>41860</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2031,12 +2069,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>84</v>
+      <c r="I19" s="19">
+        <v>41860</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2044,14 +2085,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2061,14 +2102,17 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>450</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>84</v>
+        <v>430</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41860</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2095,15 +2139,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>84</v>
+      <c r="I21" s="19">
+        <v>41852</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2130,12 +2177,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>84</v>
+      <c r="I22" s="19">
+        <v>41860</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2162,12 +2212,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>84</v>
+      <c r="I23" s="19">
+        <v>41860</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2194,15 +2247,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>84</v>
+      <c r="I24" s="19">
+        <v>41852</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2229,12 +2285,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>620</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>84</v>
+      <c r="I25" s="19">
+        <v>41860</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2261,12 +2320,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>84</v>
+      <c r="I26" s="19">
+        <v>41860</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2276,7 +2338,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>7280</v>
+        <v>7260</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2284,7 +2346,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>11580</v>
+        <v>11560</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2296,10 +2358,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2377,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2329,7 +2391,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2349,7 +2411,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2396,7 +2458,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H26"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2477,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2429,7 +2491,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2505,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2456,7 +2518,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2532,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -2480,7 +2542,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2494,7 +2556,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2531,8 +2593,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2559,12 +2624,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>84</v>
+      <c r="I9" s="19">
+        <v>41865</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2591,12 +2659,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>84</v>
+      <c r="I10" s="19">
+        <v>41860</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2623,12 +2694,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>84</v>
+      <c r="I11" s="19">
+        <v>41860</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2655,12 +2729,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>84</v>
+      <c r="I12" s="19">
+        <v>41860</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2687,12 +2764,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>84</v>
+      <c r="I13" s="19">
+        <v>41860</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2719,12 +2799,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>84</v>
+      <c r="I14" s="19">
+        <v>41860</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2751,12 +2834,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>84</v>
+      <c r="I15" s="19">
+        <v>41872</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2783,10 +2869,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>84</v>
+      <c r="I16" s="19">
+        <v>41872</v>
       </c>
       <c r="J16" s="22"/>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2815,10 +2904,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>84</v>
+      <c r="I17" s="19">
+        <v>41860</v>
       </c>
       <c r="J17" s="22"/>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2847,10 +2939,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>84</v>
+      <c r="I18" s="19">
+        <v>41865</v>
       </c>
       <c r="J18" s="22"/>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2879,10 +2974,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>84</v>
+      <c r="I19" s="19">
+        <v>41865</v>
       </c>
       <c r="J19" s="22"/>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2911,10 +3009,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>84</v>
+      <c r="I20" s="19">
+        <v>41865</v>
       </c>
       <c r="J20" s="22"/>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
       <c r="P20" s="12"/>
       <c r="S20" s="12"/>
     </row>
@@ -2945,12 +3046,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>84</v>
+      <c r="I21" s="19">
+        <v>41852</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>87</v>
       </c>
       <c r="P21" s="12"/>
     </row>
@@ -2981,10 +3085,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>84</v>
+      <c r="I22" s="19">
+        <v>41865</v>
       </c>
       <c r="J22" s="22"/>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3013,10 +3120,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>84</v>
+      <c r="I23" s="19">
+        <v>41860</v>
       </c>
       <c r="J23" s="22"/>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3045,12 +3155,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>84</v>
+      <c r="I24" s="19">
+        <v>41865</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3080,10 +3193,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>84</v>
+      <c r="I25" s="19">
+        <v>41860</v>
       </c>
       <c r="J25" s="22"/>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -3112,10 +3228,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>84</v>
+      <c r="I26" s="19">
+        <v>41860</v>
       </c>
       <c r="J26" s="22"/>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/ZSS/resources/Purva Vihar/FY2014-15/08-August-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/08-August-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -593,16 +593,13 @@
     <t>Maintenance Charges for Month of August 2014.</t>
   </si>
   <si>
+    <t xml:space="preserve">      /08/14</t>
+  </si>
+  <si>
     <t>Till April 2015</t>
   </si>
   <si>
     <t>Adjustment 220</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1026,42 +1023,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1111,6 +1072,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1139,6 +1118,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1195,64 +1192,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="27"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
+    <tableColumn id="8" name="Date" dataDxfId="21"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="17" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="16"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
+    <tableColumn id="8" name="Date" dataDxfId="4"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1546,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M27"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1563,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1577,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1591,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1609,7 +1604,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1618,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -1633,7 +1628,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>80</v>
       </c>
@@ -1647,7 +1642,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1684,11 +1679,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1715,15 +1707,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41860</v>
+      <c r="I9" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1750,15 +1739,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41872</v>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1785,15 +1771,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41872</v>
+      <c r="I11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1820,15 +1803,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41860</v>
+      <c r="I12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1855,16 +1835,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41860</v>
+      <c r="I13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1891,15 +1868,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41860</v>
+      <c r="I14" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1926,18 +1900,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I15" s="19">
-        <v>41852</v>
+      <c r="I15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1964,15 +1935,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I16" s="19">
-        <v>41860</v>
+      <c r="I16" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1999,15 +1967,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41865</v>
+      <c r="I17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2034,15 +1999,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41860</v>
+      <c r="I18" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2069,15 +2031,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41860</v>
+      <c r="I19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2085,14 +2044,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2102,17 +2061,14 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>430</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41860</v>
+        <v>450</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2139,18 +2095,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I21" s="19">
-        <v>41852</v>
+      <c r="I21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2177,15 +2130,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41860</v>
+      <c r="I22" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2212,15 +2162,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41860</v>
+      <c r="I23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2247,18 +2194,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I24" s="19">
-        <v>41852</v>
+      <c r="I24" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2285,15 +2229,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>620</v>
       </c>
-      <c r="I25" s="19">
-        <v>41860</v>
+      <c r="I25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2320,15 +2261,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="19">
-        <v>41860</v>
+      <c r="I26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2338,7 +2276,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>7260</v>
+        <v>7280</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2346,7 +2284,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>11560</v>
+        <v>11580</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2358,10 +2296,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>8380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2377,7 +2315,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2391,7 +2329,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2349,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2458,7 +2396,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H9" sqref="H9:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2415,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2429,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2443,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2518,7 +2456,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2532,7 +2470,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
@@ -2542,7 +2480,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2556,7 +2494,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2593,11 +2531,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2624,15 +2559,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19">
-        <v>41865</v>
+      <c r="I9" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2659,15 +2591,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41860</v>
+      <c r="I10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2694,15 +2623,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41860</v>
+      <c r="I11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2729,15 +2655,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41860</v>
+      <c r="I12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2764,15 +2687,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41860</v>
+      <c r="I13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2799,15 +2719,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19">
-        <v>41860</v>
+      <c r="I14" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2834,15 +2751,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41872</v>
+      <c r="I15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2869,13 +2783,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41872</v>
+      <c r="I16" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2904,13 +2815,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41860</v>
+      <c r="I17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2939,13 +2847,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41865</v>
+      <c r="I18" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2974,13 +2879,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41865</v>
+      <c r="I19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -3009,13 +2911,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19">
-        <v>41865</v>
+      <c r="I20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
       <c r="P20" s="12"/>
       <c r="S20" s="12"/>
     </row>
@@ -3046,15 +2945,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2000</v>
       </c>
-      <c r="I21" s="19">
-        <v>41852</v>
+      <c r="I21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P21" s="12"/>
     </row>
@@ -3085,13 +2981,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41865</v>
+      <c r="I22" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3120,13 +3013,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41860</v>
+      <c r="I23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3155,15 +3045,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19">
-        <v>41865</v>
+      <c r="I24" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3193,13 +3080,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41860</v>
+      <c r="I25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -3228,13 +3112,10 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41860</v>
+      <c r="I26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
